--- a/biology/Zoologie/Halmus_chalybeus/Halmus_chalybeus.xlsx
+++ b/biology/Zoologie/Halmus_chalybeus/Halmus_chalybeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halmus chalybeus, la Coccinelle bleu acier, est une espèce de coléoptères, originaire d'Australie, de la famille des Coccinellidae. 
-Mesurant environ 3 à 4 mm de long, elle a une apparence arrondie avec une coloration bleu-vert sombre lustré et est un prédateur d'autres insectes. Introduit en Nouvelle-Zélande en 1899 et 1905 pour contrôler les populations cochenilles sur les agrumes[1], où elle est maintenant courante dans les régions du nord.  
+Mesurant environ 3 à 4 mm de long, elle a une apparence arrondie avec une coloration bleu-vert sombre lustré et est un prédateur d'autres insectes. Introduit en Nouvelle-Zélande en 1899 et 1905 pour contrôler les populations cochenilles sur les agrumes, où elle est maintenant courante dans les régions du nord.  
 </t>
         </is>
       </c>
